--- a/pred_ohlcv/54_21/2020-01-21 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 APIS ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>-15963779.01608772</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-14043571.33788772</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-16014328.35898772</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-15001543.76968772</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-14227145.19278772</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-8875643.356687717</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7904339.857287717</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7903204.858587717</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-9991094.765387718</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-11034241.64138772</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-11471388.03488772</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12499395.62418772</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12523595.51728772</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-11767104.69148772</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-10174371.64458772</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-12075806.92638772</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-14465506.93678772</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-13854776.46458772</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-11458646.92338772</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-13279452.86238772</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-15949751.38188772</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-15927879.43098772</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13269601.47848772</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-13379229.45038772</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-13506229.45038772</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-10554326.55758772</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-10554326.55758772</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-12290942.86598772</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-15104351.52638772</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-13870217.97018772</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-13869088.81878772</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-13869089.54378772</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 APIS ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>-15963779.01608772</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-14043571.33788772</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-16014328.35898772</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-15001543.76968772</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-14227145.19278772</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-13280513.04878772</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-11749491.73508772</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-13991681.17398772</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-13989977.30618772</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-15411393.00028772</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-15413156.66878772</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-15413156.66878772</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-14375244.69738772</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-12050369.52108772</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-12645124.27468772</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-10501293.73268772</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-8875643.356687717</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7904339.857287717</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7903204.858587717</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-9991094.765387718</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-11034241.64138772</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-11080092.62168772</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-9798515.164387718</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-11471388.03488772</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-12499395.62418772</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-12523595.51728772</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-11767104.69148772</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-10174371.64458772</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-12075806.92638772</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-14465506.93678772</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-13854776.46458772</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-11458646.92338772</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-13279452.86238772</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-15949751.38188772</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-15927879.43098772</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13269601.47848772</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-13379229.45038772</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-13506229.45038772</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-10554326.55758772</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-10554326.55758772</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-12290942.86598772</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-15104351.52638772</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-13870217.97018772</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-13869089.54378772</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
